--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/51.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/51.xlsx
@@ -479,13 +479,13 @@
         <v>-16.37984441473861</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.96790705674941</v>
+        <v>-17.93980015627152</v>
       </c>
       <c r="F2" t="n">
-        <v>1.858135371163227</v>
+        <v>1.534673787841268</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.760005302677333</v>
+        <v>-8.501831517056155</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.6964701200721</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.47036495948286</v>
+        <v>-18.4987603113659</v>
       </c>
       <c r="F3" t="n">
-        <v>1.80344205134305</v>
+        <v>1.45838083568306</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.771479801793983</v>
+        <v>-8.526682338960685</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.87180967165148</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.90551101567263</v>
+        <v>-18.93998829209811</v>
       </c>
       <c r="F4" t="n">
-        <v>1.947506416690433</v>
+        <v>1.572524479004923</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.899058435986129</v>
+        <v>-8.689764941020366</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.96010868452652</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.39840602097439</v>
+        <v>-19.45967505503057</v>
       </c>
       <c r="F5" t="n">
-        <v>2.381679560513681</v>
+        <v>2.039180184451955</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.700295861811702</v>
+        <v>-8.508837463896445</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.97587678933672</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.85565038820261</v>
+        <v>-19.90554759228634</v>
       </c>
       <c r="F6" t="n">
-        <v>2.516269030552983</v>
+        <v>2.190573171092843</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.513306016172805</v>
+        <v>-8.337145320744126</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.94507280647833</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.53500722640164</v>
+        <v>-20.61956260016494</v>
       </c>
       <c r="F7" t="n">
-        <v>2.635453239954636</v>
+        <v>2.271065780149731</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.213893457629201</v>
+        <v>-8.02334441499119</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.89679431066617</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.09281846488231</v>
+        <v>-21.17105235276668</v>
       </c>
       <c r="F8" t="n">
-        <v>2.897728902337155</v>
+        <v>2.566660024330275</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.145388693409988</v>
+        <v>-8.016089128800688</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.856322427784878</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.47534902917033</v>
+        <v>-21.50454617817955</v>
       </c>
       <c r="F9" t="n">
-        <v>3.275820248390023</v>
+        <v>3.005986181391253</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.525054299674002</v>
+        <v>-8.43260317982064</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.840664001958173</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.12996749262278</v>
+        <v>-22.20003185003253</v>
       </c>
       <c r="F10" t="n">
-        <v>3.6029143638141</v>
+        <v>3.320627996325298</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.198145966510866</v>
+        <v>-8.123280604357799</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.865574684427109</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.08823728357244</v>
+        <v>-23.18413515326698</v>
       </c>
       <c r="F11" t="n">
-        <v>3.701745637628786</v>
+        <v>3.390687464728189</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.987488438629236</v>
+        <v>-7.952360924290452</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.944948377501513</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.96792606715018</v>
+        <v>-24.08654315175527</v>
       </c>
       <c r="F12" t="n">
-        <v>4.178135355747846</v>
+        <v>3.904864316921634</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.659000956248088</v>
+        <v>-7.723882966378915</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.085496364509322</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.56480535950436</v>
+        <v>-24.71511787562766</v>
       </c>
       <c r="F13" t="n">
-        <v>5.004113509885658</v>
+        <v>4.737926642009607</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.423717500777806</v>
+        <v>-7.504601230384046</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.307816992216657</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.74474272179995</v>
+        <v>-25.9032785474734</v>
       </c>
       <c r="F14" t="n">
-        <v>5.311759155993149</v>
+        <v>5.087549301076429</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.769886167430935</v>
+        <v>-6.863222197527208</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.621904314064147</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.17644202814854</v>
+        <v>-26.36307497628615</v>
       </c>
       <c r="F15" t="n">
-        <v>5.735288931867124</v>
+        <v>5.536883255193981</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.413550901935839</v>
+        <v>-6.564401208814499</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.035399100798207</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.1912409609969</v>
+        <v>-27.39088600091081</v>
       </c>
       <c r="F16" t="n">
-        <v>6.029225802719783</v>
+        <v>5.819687857410676</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.195002516971007</v>
+        <v>-6.391912157542873</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.552216464698172</v>
       </c>
       <c r="E17" t="n">
-        <v>-28.26578844676584</v>
+        <v>-28.5013407976138</v>
       </c>
       <c r="F17" t="n">
-        <v>6.508607593041395</v>
+        <v>6.364416113515473</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.026757123659863</v>
+        <v>-6.307816350425069</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.1746980509058</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.76365312754783</v>
+        <v>-28.99847212736575</v>
       </c>
       <c r="F18" t="n">
-        <v>6.841040503964144</v>
+        <v>6.681008642189417</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.929788561461471</v>
+        <v>-6.265453105923251</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.898065970232513</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.81163375000195</v>
+        <v>-30.09092071177789</v>
       </c>
       <c r="F19" t="n">
-        <v>6.998979870799832</v>
+        <v>6.854123486340009</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.59632895909667</v>
+        <v>-5.885235041883275</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.722321266607451</v>
       </c>
       <c r="E20" t="n">
-        <v>-30.45564551305662</v>
+        <v>-30.77127979638465</v>
       </c>
       <c r="F20" t="n">
-        <v>7.218447389055643</v>
+        <v>7.080108050749418</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.511167348481879</v>
+        <v>-5.812027053058091</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.638183770129724</v>
       </c>
       <c r="E21" t="n">
-        <v>-31.1504149454036</v>
+        <v>-31.48146426738301</v>
       </c>
       <c r="F21" t="n">
-        <v>7.541938306418805</v>
+        <v>7.426875529805962</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.436389988452415</v>
+        <v>-5.762393855345171</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.633373952407195</v>
       </c>
       <c r="E22" t="n">
-        <v>-31.44546650982192</v>
+        <v>-31.79713032925568</v>
       </c>
       <c r="F22" t="n">
-        <v>7.472504630894878</v>
+        <v>7.33941608596372</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.493371363486308</v>
+        <v>-5.789454508353545</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.693874766059948</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.81170201422252</v>
+        <v>-32.09190322028258</v>
       </c>
       <c r="F23" t="n">
-        <v>7.597604538605498</v>
+        <v>7.472367738702605</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.080216060183927</v>
+        <v>-5.347894075154388</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.807199861727619</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.93258759801385</v>
+        <v>-32.26460983235978</v>
       </c>
       <c r="F24" t="n">
-        <v>7.885899495533739</v>
+        <v>7.793189258316431</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.25914393349928</v>
+        <v>-5.513905192327352</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.95942502872021</v>
       </c>
       <c r="E25" t="n">
-        <v>-32.0877402309354</v>
+        <v>-32.40889664751961</v>
       </c>
       <c r="F25" t="n">
-        <v>7.821613944240674</v>
+        <v>7.715610497352224</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.114184879895253</v>
+        <v>-5.36015570437661</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.140141844845362</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.89284730569614</v>
+        <v>-32.17641948199094</v>
       </c>
       <c r="F26" t="n">
-        <v>7.44944318550364</v>
+        <v>7.344173089645229</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.118052084326982</v>
+        <v>-5.368344790878693</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.336613041091591</v>
       </c>
       <c r="E27" t="n">
-        <v>-32.11021255099917</v>
+        <v>-32.41111136763032</v>
       </c>
       <c r="F27" t="n">
-        <v>7.505539650294623</v>
+        <v>7.411528937250716</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.65459867837778</v>
+        <v>-4.854427056049194</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.53609799808484</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.71681616894943</v>
+        <v>-31.98018696887014</v>
       </c>
       <c r="F28" t="n">
-        <v>7.409822673854162</v>
+        <v>7.285509896249116</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.786059184022256</v>
+        <v>-4.968634256460327</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.727008875905164</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.52292549011788</v>
+        <v>-31.77447956044126</v>
       </c>
       <c r="F29" t="n">
-        <v>7.035339414869078</v>
+        <v>6.891944843462462</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.449597731441169</v>
+        <v>-4.612734112576387</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.902500402142409</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.65305863039799</v>
+        <v>-31.8973158579725</v>
       </c>
       <c r="F30" t="n">
-        <v>6.868247827178526</v>
+        <v>6.800975092689776</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.528217850868028</v>
+        <v>-4.631850129426025</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.056454940867557</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.16368371004041</v>
+        <v>-31.3374854596558</v>
       </c>
       <c r="F31" t="n">
-        <v>6.76212704412527</v>
+        <v>6.666938080426435</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.443618476042932</v>
+        <v>-4.542669755166629</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.18614758160958</v>
       </c>
       <c r="E32" t="n">
-        <v>-31.16196277962325</v>
+        <v>-31.34187578782229</v>
       </c>
       <c r="F32" t="n">
-        <v>6.477968187006439</v>
+        <v>6.320165712363026</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.446185204648062</v>
+        <v>-4.489628919667468</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.288622530527435</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.6068258278988</v>
+        <v>-30.77341873688892</v>
       </c>
       <c r="F33" t="n">
-        <v>6.516894459680816</v>
+        <v>6.379132024184886</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.053006383403895</v>
+        <v>-4.046401335126693</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.361326373181479</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.22591596938715</v>
+        <v>-30.35452618402822</v>
       </c>
       <c r="F34" t="n">
-        <v>6.35296117042629</v>
+        <v>6.164343285500713</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.951520378860474</v>
+        <v>-3.897892862537284</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.403187874405293</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.66616379518032</v>
+        <v>-29.74104626885743</v>
       </c>
       <c r="F35" t="n">
-        <v>6.482700745653613</v>
+        <v>6.329024592805875</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.993287164524529</v>
+        <v>-3.92675755907955</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.416064555683911</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.35649654473336</v>
+        <v>-29.43937987814817</v>
       </c>
       <c r="F36" t="n">
-        <v>6.360768914392754</v>
+        <v>6.160656974323058</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.048019596399642</v>
+        <v>-3.917903567643568</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.401974248109281</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.05673686670221</v>
+        <v>-29.02915308995907</v>
       </c>
       <c r="F37" t="n">
-        <v>6.524223080974322</v>
+        <v>6.31534026258538</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.855940294612287</v>
+        <v>-3.698665832710501</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.365702881123483</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.33889621095025</v>
+        <v>-28.27924054916016</v>
       </c>
       <c r="F38" t="n">
-        <v>6.145207712623607</v>
+        <v>5.891737151608401</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.758037932102316</v>
+        <v>-3.578802051354347</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.311201922364402</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.76585816058259</v>
+        <v>-27.70318109254874</v>
       </c>
       <c r="F39" t="n">
-        <v>6.100047956193913</v>
+        <v>5.836814048465479</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.771076913416378</v>
+        <v>-3.580747876087379</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.241818474396517</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.38829971627821</v>
+        <v>-27.33628801672454</v>
       </c>
       <c r="F40" t="n">
-        <v>6.170772329530705</v>
+        <v>5.881582684345819</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.532615603482601</v>
+        <v>-3.333965476466113</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.161212517318098</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.15584210677701</v>
+        <v>-27.08474616891833</v>
       </c>
       <c r="F41" t="n">
-        <v>6.01595214907611</v>
+        <v>5.704981978299117</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.832169943225347</v>
+        <v>-3.591293463899314</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.073906386370821</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.53882743964144</v>
+        <v>-26.49163874536198</v>
       </c>
       <c r="F42" t="n">
-        <v>5.847902316039642</v>
+        <v>5.490716363349703</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.651824257918588</v>
+        <v>-3.425673467275704</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.983939354050906</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.05728226378122</v>
+        <v>-25.99859951435764</v>
       </c>
       <c r="F43" t="n">
-        <v>5.712882613396052</v>
+        <v>5.330928951918322</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.578865608443616</v>
+        <v>-3.334508156228341</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.896431361353493</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.32196096397661</v>
+        <v>-25.26183595752729</v>
       </c>
       <c r="F44" t="n">
-        <v>5.810168961040793</v>
+        <v>5.411147776590663</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.729393240869061</v>
+        <v>-3.522197129849205</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.814578035347539</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.87447016544789</v>
+        <v>-24.84739973442577</v>
       </c>
       <c r="F45" t="n">
-        <v>5.777930849760355</v>
+        <v>5.354014842343894</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.810008075097621</v>
+        <v>-3.594529986445212</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.739811303704696</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.31655625782302</v>
+        <v>-24.24632567417979</v>
       </c>
       <c r="F46" t="n">
-        <v>5.719013428007163</v>
+        <v>5.312345836817178</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.857803006228582</v>
+        <v>-3.674993261460898</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.673635277353953</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.32108836718865</v>
+        <v>-24.30279859249952</v>
       </c>
       <c r="F47" t="n">
-        <v>5.884843651926052</v>
+        <v>5.463861048629739</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.968460787654335</v>
+        <v>-3.807803133000643</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.617401573911846</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.78952131756959</v>
+        <v>-23.74140860099228</v>
       </c>
       <c r="F48" t="n">
-        <v>5.852204642082527</v>
+        <v>5.457696010970559</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.083386672074905</v>
+        <v>-3.969643927316128</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.572214340385117</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.0381347412003</v>
+        <v>-22.99252030713198</v>
       </c>
       <c r="F49" t="n">
-        <v>5.984481611873778</v>
+        <v>5.567429770098466</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.278942057744636</v>
+        <v>-4.17559334158492</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.540004546396239</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.91525933161412</v>
+        <v>-22.89934072525545</v>
       </c>
       <c r="F50" t="n">
-        <v>5.859391482176893</v>
+        <v>5.442901876191275</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.49262099187002</v>
+        <v>-4.4508639842197</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.520532100211738</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.49710257428688</v>
+        <v>-22.5210391519073</v>
       </c>
       <c r="F51" t="n">
-        <v>5.96219751857438</v>
+        <v>5.558336217326004</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.246078153585233</v>
+        <v>-4.193174210278347</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.511630265954209</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.84515350858378</v>
+        <v>-21.82819354376245</v>
       </c>
       <c r="F52" t="n">
-        <v>5.885244550489139</v>
+        <v>5.508067448720384</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.438035230200915</v>
+        <v>-4.366103272167996</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.510721115174683</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.43977172619979</v>
+        <v>-21.44002595455687</v>
       </c>
       <c r="F53" t="n">
-        <v>6.242117606739595</v>
+        <v>5.870293967490112</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.495725511230511</v>
+        <v>-4.477743743973998</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.514648440199251</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.85219621391335</v>
+        <v>-20.87521365824279</v>
       </c>
       <c r="F54" t="n">
-        <v>6.402217914610459</v>
+        <v>6.073349089693691</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.485703047153335</v>
+        <v>-4.451729338435144</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.519805552877172</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.54563592733032</v>
+        <v>-20.56527506791472</v>
       </c>
       <c r="F55" t="n">
-        <v>6.291819250548652</v>
+        <v>5.951524816583905</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.971342766264598</v>
+        <v>-4.999835898284979</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.523685809881114</v>
       </c>
       <c r="E56" t="n">
-        <v>-19.98167920721794</v>
+        <v>-19.99487952575861</v>
       </c>
       <c r="F56" t="n">
-        <v>6.164269950397708</v>
+        <v>5.824175965714504</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.017221206703728</v>
+        <v>-5.063314763445002</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.522951870537364</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.7563057686669</v>
+        <v>-19.76671446428656</v>
       </c>
       <c r="F57" t="n">
-        <v>6.199167681413748</v>
+        <v>5.863913813528788</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.275096762906024</v>
+        <v>-5.311446528961537</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.513949184975811</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.36100511844249</v>
+        <v>-19.33983082970188</v>
       </c>
       <c r="F58" t="n">
-        <v>5.882614264794738</v>
+        <v>5.5549823586153</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.670856979775922</v>
+        <v>-5.739087959610587</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.494838144617102</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.83688891528861</v>
+        <v>-18.88105131431745</v>
       </c>
       <c r="F59" t="n">
-        <v>6.030619169676855</v>
+        <v>5.689547383620267</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.453007722793059</v>
+        <v>-5.504977865788365</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.464030187603619</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.22452613818691</v>
+        <v>-18.249944084888</v>
       </c>
       <c r="F60" t="n">
-        <v>5.803343907454579</v>
+        <v>5.43268874084629</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.858037496682628</v>
+        <v>-5.919990991700174</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.421286151052894</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.94689410523541</v>
+        <v>-17.95411516837784</v>
       </c>
       <c r="F61" t="n">
-        <v>5.569395150858965</v>
+        <v>5.243748181467494</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.845629197254397</v>
+        <v>-5.87362853958122</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.367729538442831</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.68637848532498</v>
+        <v>-17.67502621138</v>
       </c>
       <c r="F62" t="n">
-        <v>5.575164178961925</v>
+        <v>5.208645112163045</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.939307457831355</v>
+        <v>-5.983611638059338</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.304111190225271</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.16204227686208</v>
+        <v>-17.14860239698494</v>
       </c>
       <c r="F63" t="n">
-        <v>5.475311102712054</v>
+        <v>5.141049703221079</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.888994688163933</v>
+        <v>-5.971687350310932</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.231228804438233</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.2587419436828</v>
+        <v>-17.29527749199925</v>
       </c>
       <c r="F64" t="n">
-        <v>5.316995282347614</v>
+        <v>4.964370773064506</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.106579938775983</v>
+        <v>-6.179470142154818</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.152330618692649</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.86590535291931</v>
+        <v>-16.88508492685822</v>
       </c>
       <c r="F65" t="n">
-        <v>5.394417595092079</v>
+        <v>5.058469488232019</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.986530375158886</v>
+        <v>-6.056638733630447</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.071328694644013</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.8432399170843</v>
+        <v>-16.86479554836053</v>
       </c>
       <c r="F66" t="n">
-        <v>5.409617517441318</v>
+        <v>5.083183417944274</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.139086945434101</v>
+        <v>-6.230692267099486</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.99424821009138</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.65078905077506</v>
+        <v>-16.65738432103852</v>
       </c>
       <c r="F67" t="n">
-        <v>5.107902236663396</v>
+        <v>4.734905235765853</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.112344077872076</v>
+        <v>-6.207924162120263</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.92767814769218</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.51838985581213</v>
+        <v>-16.58200561316443</v>
       </c>
       <c r="F68" t="n">
-        <v>4.978539114964826</v>
+        <v>4.608138176713616</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.188744588181356</v>
+        <v>-6.312167566536623</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.877054128478085</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.52777185998974</v>
+        <v>-16.63113524317006</v>
       </c>
       <c r="F69" t="n">
-        <v>5.147908979855361</v>
+        <v>4.803556670191073</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.863542518414774</v>
+        <v>-6.001999192885806</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.845300642435682</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.32914128900072</v>
+        <v>-16.42684809123602</v>
       </c>
       <c r="F70" t="n">
-        <v>5.092140078524462</v>
+        <v>4.738464432764967</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.773232783569121</v>
+        <v>-5.900151401834234</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.835960412013064</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.37840292219176</v>
+        <v>-16.47572349288457</v>
       </c>
       <c r="F71" t="n">
-        <v>4.880685642523523</v>
+        <v>4.526657988269611</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.53042025752379</v>
+        <v>-5.686252462399837</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.850220022180173</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.36604840183906</v>
+        <v>-16.46882021518848</v>
       </c>
       <c r="F72" t="n">
-        <v>4.833316054989984</v>
+        <v>4.456451849660713</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.524866345722975</v>
+        <v>-5.684301748659938</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.888697476425593</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.34164247955942</v>
+        <v>-16.45087267098004</v>
       </c>
       <c r="F73" t="n">
-        <v>4.892683265374933</v>
+        <v>4.515467051551243</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.53698130473919</v>
+        <v>-5.718559019776412</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.949678714031466</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.56749015177656</v>
+        <v>-16.71974360362602</v>
       </c>
       <c r="F74" t="n">
-        <v>4.866336407369128</v>
+        <v>4.518537347863665</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.14146064920577</v>
+        <v>-5.297977315043186</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.028300378846137</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.82730175469815</v>
+        <v>-16.97916408599827</v>
       </c>
       <c r="F75" t="n">
-        <v>4.824916741192625</v>
+        <v>4.529229605881609</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.178475320195184</v>
+        <v>-5.347537177653103</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.116363493497817</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.93095847829048</v>
+        <v>-17.09744382912954</v>
       </c>
       <c r="F76" t="n">
-        <v>4.675586915449575</v>
+        <v>4.338617006154329</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.940106901391879</v>
+        <v>-5.127541646655664</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.206702865653321</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.12826901742544</v>
+        <v>-17.33732784006159</v>
       </c>
       <c r="F77" t="n">
-        <v>4.698227906250257</v>
+        <v>4.376643701565193</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.64291884097272</v>
+        <v>-4.78720810063598</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.291022803137098</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.56110257336715</v>
+        <v>-17.77632643366248</v>
       </c>
       <c r="F78" t="n">
-        <v>4.488029945014116</v>
+        <v>4.149862229036477</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.010936479314092</v>
+        <v>-4.129524229877981</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.362803154111909</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.81015836118153</v>
+        <v>-18.08488143504722</v>
       </c>
       <c r="F79" t="n">
-        <v>4.647323566751939</v>
+        <v>4.328760768310628</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.749345277892941</v>
+        <v>-3.849384136403755</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.416582270572143</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.16875723685601</v>
+        <v>-18.3910066000191</v>
       </c>
       <c r="F80" t="n">
-        <v>4.43081389765061</v>
+        <v>4.110060824132922</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.358136726416141</v>
+        <v>-3.451057190928726</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.447989919512911</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.07845474458287</v>
+        <v>-19.32208862378185</v>
       </c>
       <c r="F81" t="n">
-        <v>4.387135510301593</v>
+        <v>4.072386137216475</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.01431242949348</v>
+        <v>-3.100319838296248</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.453315965148091</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.8172912403248</v>
+        <v>-20.07663838759403</v>
       </c>
       <c r="F82" t="n">
-        <v>4.30352860387048</v>
+        <v>4.029074425382476</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.817114337516466</v>
+        <v>-2.875068624916875</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.43305009778993</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.39685855936323</v>
+        <v>-20.65133136678615</v>
       </c>
       <c r="F83" t="n">
-        <v>4.065140629039707</v>
+        <v>3.779187506400719</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.597412146931041</v>
+        <v>-2.600247770913852</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.388265068104013</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.68954130901674</v>
+        <v>-21.99700117286329</v>
       </c>
       <c r="F84" t="n">
-        <v>3.806561055848575</v>
+        <v>3.510473021974472</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.091404825212211</v>
+        <v>-2.076180457828638</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.323503200418175</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.47000769823044</v>
+        <v>-22.75343320431924</v>
       </c>
       <c r="F85" t="n">
-        <v>3.906179459768834</v>
+        <v>3.621253028571898</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.132242699571552</v>
+        <v>-2.131792910939796</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.244098918375779</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.38907254311432</v>
+        <v>-23.70780645679597</v>
       </c>
       <c r="F86" t="n">
-        <v>3.589880271506905</v>
+        <v>3.323233836985364</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.76902371240784</v>
+        <v>-1.700479836133692</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.156107337755531</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.15588882515559</v>
+        <v>-24.46924972029051</v>
       </c>
       <c r="F87" t="n">
-        <v>3.461851848683003</v>
+        <v>3.197649917594919</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.746221384380548</v>
+        <v>-1.700753620518239</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.064508448583482</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.38861768360013</v>
+        <v>-25.6906800838656</v>
       </c>
       <c r="F88" t="n">
-        <v>3.609172292603751</v>
+        <v>3.349561138963701</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.523385340393432</v>
+        <v>-1.389998566043391</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.97731219360529</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.74978564144538</v>
+        <v>-27.04491787447701</v>
       </c>
       <c r="F89" t="n">
-        <v>3.110430035089157</v>
+        <v>2.830514835930808</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.35819557637411</v>
+        <v>-1.152485723441796</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.900897550745773</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.0176053466772</v>
+        <v>-28.32058688023366</v>
       </c>
       <c r="F90" t="n">
-        <v>3.173014211992535</v>
+        <v>2.897430672918273</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.375874225204874</v>
+        <v>-1.166228721744694</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.843552130963673</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.73140514731587</v>
+        <v>-30.04415980559929</v>
       </c>
       <c r="F91" t="n">
-        <v>2.813486425013343</v>
+        <v>2.529220009743441</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.563587643860074</v>
+        <v>-1.3225547163143</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.812030805477534</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.35484632304021</v>
+        <v>-31.64536088908604</v>
       </c>
       <c r="F92" t="n">
-        <v>2.495920983972883</v>
+        <v>2.20344592617343</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.769317052819855</v>
+        <v>-1.519415466817497</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.811881846016322</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.93910944223654</v>
+        <v>-33.23405589300722</v>
       </c>
       <c r="F93" t="n">
-        <v>2.247530101092402</v>
+        <v>1.984203302233496</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.101197505966642</v>
+        <v>-1.805539704696827</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.845403653576515</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.88093007864468</v>
+        <v>-35.15192772927778</v>
       </c>
       <c r="F94" t="n">
-        <v>1.69165490933104</v>
+        <v>1.422172850826688</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.911944050148364</v>
+        <v>-1.567958415999095</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.917578874654767</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.16304759352101</v>
+        <v>-37.5016430975995</v>
       </c>
       <c r="F95" t="n">
-        <v>1.350964465810071</v>
+        <v>1.115593008216185</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.972606847353045</v>
+        <v>-1.575120811059126</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.034112634224297</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.90436028030324</v>
+        <v>-39.19917961689538</v>
       </c>
       <c r="F96" t="n">
-        <v>1.11175024881879</v>
+        <v>0.8579130122885658</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.208388981523752</v>
+        <v>-1.763450244579557</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.195049369468581</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.94747136098013</v>
+        <v>-41.21738854109564</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6262327548792002</v>
+        <v>0.3612583607061439</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.457982560093494</v>
+        <v>-1.983856452153816</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.410872541313303</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.53815619069614</v>
+        <v>-42.72675451959425</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2442644263808691</v>
+        <v>-0.01686231938792515</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.707160573079548</v>
+        <v>-2.212837977772645</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.669018349709529</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.03267416440216</v>
+        <v>-45.22445034776376</v>
       </c>
       <c r="F99" t="n">
-        <v>0.04041728506485039</v>
+        <v>-0.2247673364034833</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.84615503830594</v>
+        <v>-2.341800200908127</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.986378933732988</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.58120466372213</v>
+        <v>-47.75187622669098</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.7400931052106534</v>
+        <v>-0.9935783332464596</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.324343910952024</v>
+        <v>-2.871920104494582</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.329578792405355</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.32298913966702</v>
+        <v>-49.49023106431873</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.7355072167694872</v>
+        <v>-0.9714360211462019</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.667835755407735</v>
+        <v>-3.219841389171717</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.747478638085536</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.40765188970582</v>
+        <v>-51.46822546253518</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.074647845113643</v>
+        <v>-1.284479130834766</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.948699421898265</v>
+        <v>-3.518828604117901</v>
       </c>
     </row>
   </sheetData>
